--- a/blog/2016-09-06/ptfc-april-2016-heat-maps.xlsx
+++ b/blog/2016-09-06/ptfc-april-2016-heat-maps.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/wosostats/blog/pending-sept/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1007,14 +1007,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1619,111 +1612,189 @@
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="42" xfId="22"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="42" xfId="22"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="7" fillId="6" borderId="42" xfId="22" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="42" xfId="22" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1744,10 +1815,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1759,107 +1830,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -2293,90 +2286,90 @@
       <c r="L6" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
@@ -2451,76 +2444,76 @@
       <c r="L19" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2538,7 +2531,7 @@
   <dimension ref="A1:HA113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2556,47 +2549,47 @@
         <v>240</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="32">
+      <c r="D1" s="62">
         <f>B17</f>
-        <v>4</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="32">
+        <v>25</v>
+      </c>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="62">
         <f>B20</f>
-        <v>5</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="24">
+        <v>12</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="50">
         <f>B20</f>
-        <v>5</v>
-      </c>
-      <c r="K1" s="32">
+        <v>12</v>
+      </c>
+      <c r="K1" s="62">
         <f>B21</f>
         <v>1</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="55">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64">
         <f>B20</f>
-        <v>5</v>
-      </c>
-      <c r="R1" s="24">
+        <v>12</v>
+      </c>
+      <c r="R1" s="50">
         <f>B20</f>
-        <v>5</v>
-      </c>
-      <c r="S1" s="36"/>
-      <c r="T1" s="32">
+        <v>12</v>
+      </c>
+      <c r="S1" s="63"/>
+      <c r="T1" s="62">
         <f>B19</f>
-        <v>2</v>
-      </c>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="36"/>
+        <v>16</v>
+      </c>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="63"/>
       <c r="Y1" s="2" t="s">
         <v>232</v>
       </c>
@@ -3156,26 +3149,26 @@
         <v>225</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="37"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
       <c r="Y2" t="s">
         <v>226</v>
       </c>
@@ -3736,29 +3729,29 @@
         <v>226</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="19">
+      <c r="D3" s="35"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="21">
         <f>B20</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="37"/>
+        <v>12</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="22"/>
       <c r="Y3" t="s">
         <v>228</v>
       </c>
@@ -4319,26 +4312,26 @@
         <v>22</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="22"/>
       <c r="Y4" t="s">
         <v>233</v>
       </c>
@@ -4899,40 +4892,40 @@
         <v>230</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="35">
         <f>B17</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="24">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="50">
         <f>B18</f>
-        <v>3</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27">
+        <v>10</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="45">
         <f>B19</f>
-        <v>2</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
       <c r="Y5" t="s">
         <v>227</v>
       </c>
@@ -5495,29 +5488,29 @@
       </c>
       <c r="B6" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A6,$AC1:$HA1,0),FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="22"/>
       <c r="Y6" t="s">
         <v>229</v>
       </c>
@@ -6080,29 +6073,29 @@
       </c>
       <c r="B7" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A7,$AC1:$HA1,0),FALSE)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="22"/>
       <c r="Y7" t="s">
         <v>234</v>
       </c>
@@ -6665,29 +6658,29 @@
       </c>
       <c r="B8" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A8,$AC1:$HA1,0),FALSE)</f>
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="22"/>
       <c r="Y8" t="s">
         <v>235</v>
       </c>
@@ -7250,29 +7243,29 @@
       </c>
       <c r="B9" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A9,$AC1:$HA1,0),FALSE)</f>
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="37"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
       <c r="Y9" t="s">
         <v>236</v>
       </c>
@@ -7835,29 +7828,29 @@
       </c>
       <c r="B10" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A10,$AC1:$HA1,0),FALSE)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="40"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="54"/>
       <c r="Y10" t="s">
         <v>237</v>
       </c>
@@ -8420,38 +8413,38 @@
       </c>
       <c r="B11" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A11,$AC1:$HA1,0),FALSE)</f>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="29">
+      <c r="D11" s="55">
         <f>B14</f>
-        <v>6</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="41">
+        <v>21</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="59">
         <f>B15</f>
-        <v>3</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="41">
+        <v>37</v>
+      </c>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="59">
         <f>B16</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="42"/>
+        <v>27</v>
+      </c>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="61"/>
       <c r="Y11" t="s">
         <v>238</v>
       </c>
@@ -9014,29 +9007,29 @@
       </c>
       <c r="B12" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A12,$AC1:$HA1,0),FALSE)</f>
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="37"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="22"/>
       <c r="Y12" t="s">
         <v>231</v>
       </c>
@@ -9599,29 +9592,29 @@
       </c>
       <c r="B13" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A13,$AC1:$HA1,0),FALSE)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="22"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AC13" t="s">
@@ -10175,29 +10168,29 @@
       </c>
       <c r="B14" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A14,$AC1:$HA1,0),FALSE)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="22"/>
       <c r="Y14" s="2" t="s">
         <v>239</v>
       </c>
@@ -10752,38 +10745,38 @@
       </c>
       <c r="B15" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A15,$AC1:$HA1,0),FALSE)</f>
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="38"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="25"/>
       <c r="Y15" s="13" t="str">
         <f>VLOOKUP(B3,Y2:Z12,1,FALSE)</f>
         <v>opPass.Att</v>
       </c>
       <c r="Z15" s="16">
-        <f>VLOOKUP(B3,Y2:Z12,2,FALSE)</f>
-        <v>20</v>
+        <f>IF(Y17=TRUE,VLOOKUP(B3,Y2:AA12,3,FALSE),VLOOKUP(B3,Y2:AA12,2,FALSE))</f>
+        <v>55</v>
       </c>
       <c r="AC15" t="s">
         <v>224</v>
@@ -11336,38 +11329,38 @@
       </c>
       <c r="B16" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A16,$AC1:$HA1,0),FALSE)</f>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="32">
+      <c r="D16" s="62">
         <f>B11</f>
-        <v>5</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="24">
+        <v>26</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="50">
         <f>B12</f>
-        <v>2</v>
-      </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="24">
+        <v>54</v>
+      </c>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="50">
         <f>B13</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="36"/>
+        <v>34</v>
+      </c>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="63"/>
       <c r="Y16" s="2" t="s">
         <v>268</v>
       </c>
@@ -11923,32 +11916,32 @@
       </c>
       <c r="B17" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A17,$AC1:$HA1,0),FALSE)</f>
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="37"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="22"/>
       <c r="Y17" s="13" t="b">
         <f>OR(B5="PTFC",B5="ORL")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="15"/>
       <c r="AC17" t="s">
@@ -12502,29 +12495,29 @@
       </c>
       <c r="B18" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A18,$AC1:$HA1,0),FALSE)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-      <c r="W18" s="37"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22"/>
       <c r="AC18" t="s">
         <v>207</v>
       </c>
@@ -13076,29 +13069,29 @@
       </c>
       <c r="B19" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A19,$AC1:$HA1,0),FALSE)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="22"/>
       <c r="AC19" t="s">
         <v>208</v>
       </c>
@@ -13650,29 +13643,29 @@
       </c>
       <c r="B20" s="14">
         <f>VLOOKUP(B5,$AC2:$HA32,MATCH(A20,$AC1:$HA1,0),FALSE)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="40"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="54"/>
       <c r="AC20" t="s">
         <v>209</v>
       </c>
@@ -14227,35 +14220,35 @@
         <v>1</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="29">
+      <c r="D21" s="55">
         <f>B8</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="30">
+        <v>33</v>
+      </c>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="56">
         <f>B9</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="41">
+        <v>55</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="59">
         <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="42"/>
+        <v>21</v>
+      </c>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="61"/>
       <c r="AC21" t="s">
         <v>210</v>
       </c>
@@ -14802,26 +14795,26 @@
     </row>
     <row r="22" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="19"/>
-      <c r="T22" s="19"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="37"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="22"/>
       <c r="AC22" t="s">
         <v>211</v>
       </c>
@@ -15369,26 +15362,26 @@
     <row r="23" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="19"/>
-      <c r="T23" s="19"/>
-      <c r="U23" s="19"/>
-      <c r="V23" s="19"/>
-      <c r="W23" s="37"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="22"/>
       <c r="AC23" t="s">
         <v>212</v>
       </c>
@@ -15936,26 +15929,26 @@
     <row r="24" spans="1:209" x14ac:dyDescent="0.2">
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="37"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="22"/>
       <c r="AC24" t="s">
         <v>213</v>
       </c>
@@ -16504,26 +16497,26 @@
       <c r="C25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="19"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="37"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="22"/>
       <c r="AC25" t="s">
         <v>214</v>
       </c>
@@ -17071,26 +17064,26 @@
     <row r="26" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="19"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="37"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="22"/>
       <c r="AC26" t="s">
         <v>9</v>
       </c>
@@ -17637,47 +17630,47 @@
     </row>
     <row r="27" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
-      <c r="D27" s="18">
+      <c r="D27" s="35">
         <f>B8</f>
-        <v>2</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="45">
+        <v>33</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="39">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="50">
+        <v>24</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="44">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="52">
+        <v>24</v>
+      </c>
+      <c r="K27" s="27">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="46">
+        <v>24</v>
+      </c>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="40">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="50">
+        <v>24</v>
+      </c>
+      <c r="R27" s="44">
         <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="53"/>
-      <c r="T27" s="47">
+        <v>24</v>
+      </c>
+      <c r="S27" s="28"/>
+      <c r="T27" s="20">
         <f>B10</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="37"/>
+        <v>21</v>
+      </c>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="22"/>
       <c r="AC27" t="s">
         <v>219</v>
       </c>
@@ -18224,26 +18217,26 @@
     </row>
     <row r="28" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="37"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="22"/>
       <c r="AC28" t="s">
         <v>221</v>
       </c>
@@ -18790,29 +18783,29 @@
     </row>
     <row r="29" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="62">
+      <c r="D29" s="35"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="26">
         <f>B6</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="22"/>
       <c r="AC29" t="s">
         <v>222</v>
       </c>
@@ -19359,54 +19352,54 @@
     </row>
     <row r="30" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="25"/>
     </row>
     <row r="31" spans="1:209" x14ac:dyDescent="0.2">
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60" t="s">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="59" t="s">
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
       <c r="AC31" t="s">
         <v>205</v>
       </c>
@@ -20116,26 +20109,26 @@
       </c>
     </row>
     <row r="32" spans="1:209" x14ac:dyDescent="0.2">
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
       <c r="AC32" t="s">
         <v>203</v>
       </c>
@@ -20845,73 +20838,73 @@
       </c>
     </row>
     <row r="33" spans="1:209" x14ac:dyDescent="0.2">
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
     </row>
     <row r="41" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C41" s="3"/>
-      <c r="D41" s="32">
+      <c r="D41" s="62">
         <f>B57</f>
-        <v>14</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="32">
+        <v>52</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="62">
         <f>B60</f>
-        <v>2</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="24">
+        <v>9</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="50">
         <f>B60</f>
-        <v>2</v>
-      </c>
-      <c r="K41" s="32">
+        <v>9</v>
+      </c>
+      <c r="K41" s="62">
         <f>B61</f>
         <v>0</v>
       </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="55">
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="64">
         <f>B60</f>
-        <v>2</v>
-      </c>
-      <c r="R41" s="24">
+        <v>9</v>
+      </c>
+      <c r="R41" s="50">
         <f>B60</f>
-        <v>2</v>
-      </c>
-      <c r="S41" s="36"/>
-      <c r="T41" s="32">
+        <v>9</v>
+      </c>
+      <c r="S41" s="63"/>
+      <c r="T41" s="62">
         <f>B59</f>
-        <v>1</v>
-      </c>
-      <c r="U41" s="25"/>
-      <c r="V41" s="25"/>
-      <c r="W41" s="36"/>
+        <v>18</v>
+      </c>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="63"/>
       <c r="Y41" s="2" t="s">
         <v>232</v>
       </c>
@@ -21470,26 +21463,26 @@
         <v>225</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="38"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="37"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="22"/>
       <c r="Y42" t="s">
         <v>226</v>
       </c>
@@ -22050,29 +22043,29 @@
         <v>226</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="19">
+      <c r="D43" s="35"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="21">
         <f>B60</f>
-        <v>2</v>
-      </c>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="19"/>
-      <c r="V43" s="19"/>
-      <c r="W43" s="37"/>
+        <v>9</v>
+      </c>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="22"/>
       <c r="Y43" t="s">
         <v>228</v>
       </c>
@@ -22633,26 +22626,26 @@
         <v>22</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="37"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="58"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="22"/>
       <c r="Y44" t="s">
         <v>233</v>
       </c>
@@ -23213,40 +23206,40 @@
         <v>230</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="35">
         <f>B57</f>
-        <v>14</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="24">
+        <v>52</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="50">
         <f>B58</f>
-        <v>7</v>
-      </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="27">
+        <v>32</v>
+      </c>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="45">
         <f>B59</f>
-        <v>1</v>
-      </c>
-      <c r="S45" s="19"/>
-      <c r="T45" s="19"/>
-      <c r="U45" s="19"/>
-      <c r="V45" s="19"/>
-      <c r="W45" s="37"/>
+        <v>18</v>
+      </c>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="22"/>
       <c r="Y45" t="s">
         <v>227</v>
       </c>
@@ -23809,29 +23802,29 @@
       </c>
       <c r="B46" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A46,$AC41:$HA41,0),FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="19"/>
-      <c r="T46" s="19"/>
-      <c r="U46" s="19"/>
-      <c r="V46" s="19"/>
-      <c r="W46" s="37"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="22"/>
       <c r="Y46" t="s">
         <v>229</v>
       </c>
@@ -24394,29 +24387,29 @@
       </c>
       <c r="B47" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A47,$AC41:$HA41,0),FALSE)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="19"/>
-      <c r="T47" s="19"/>
-      <c r="U47" s="19"/>
-      <c r="V47" s="19"/>
-      <c r="W47" s="37"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="22"/>
       <c r="Y47" t="s">
         <v>234</v>
       </c>
@@ -24979,29 +24972,29 @@
       </c>
       <c r="B48" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A48,$AC41:$HA41,0),FALSE)</f>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="37"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="22"/>
       <c r="Y48" t="s">
         <v>235</v>
       </c>
@@ -25564,29 +25557,29 @@
       </c>
       <c r="B49" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A49,$AC41:$HA41,0),FALSE)</f>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="37"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="22"/>
       <c r="Y49" t="s">
         <v>236</v>
       </c>
@@ -26149,29 +26142,29 @@
       </c>
       <c r="B50" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A50,$AC41:$HA41,0),FALSE)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="40"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="53"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="54"/>
       <c r="Y50" t="s">
         <v>237</v>
       </c>
@@ -26734,38 +26727,38 @@
       </c>
       <c r="B51" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A51,$AC41:$HA41,0),FALSE)</f>
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="29">
+      <c r="D51" s="55">
         <f>B54</f>
-        <v>5</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="41">
+        <v>26</v>
+      </c>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="59">
         <f>B55</f>
-        <v>6</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="41">
+        <v>47</v>
+      </c>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="59">
         <f>B56</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="61"/>
       <c r="Y51" t="s">
         <v>238</v>
       </c>
@@ -27328,29 +27321,29 @@
       </c>
       <c r="B52" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A52,$AC41:$HA41,0),FALSE)</f>
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="19"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
-      <c r="V52" s="19"/>
-      <c r="W52" s="37"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="22"/>
       <c r="Y52" t="s">
         <v>231</v>
       </c>
@@ -27913,29 +27906,29 @@
       </c>
       <c r="B53" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A53,$AC41:$HA41,0),FALSE)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="19"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
-      <c r="V53" s="19"/>
-      <c r="W53" s="37"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="22"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AC53" t="s">
@@ -28489,29 +28482,29 @@
       </c>
       <c r="B54" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A54,$AC41:$HA41,0),FALSE)</f>
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="37"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="22"/>
       <c r="Y54" s="2" t="s">
         <v>239</v>
       </c>
@@ -29066,38 +29059,38 @@
       </c>
       <c r="B55" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A55,$AC41:$HA41,0),FALSE)</f>
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="39"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="39"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="39"/>
-      <c r="W55" s="38"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="58"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="58"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="25"/>
       <c r="Y55" s="13" t="str">
         <f>VLOOKUP(B43,Y42:Z52,1,FALSE)</f>
         <v>opPass.Att</v>
       </c>
       <c r="Z55" s="16">
         <f>IF(Y57=TRUE,VLOOKUP(B43,Y42:AA52,3,FALSE),VLOOKUP(B43,Y42:AA52,2,FALSE))</f>
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AC55" t="s">
         <v>249</v>
@@ -29650,38 +29643,38 @@
       </c>
       <c r="B56" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A56,$AC41:$HA41,0),FALSE)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="32">
+      <c r="D56" s="62">
         <f>B51</f>
-        <v>6</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="24">
+        <v>40</v>
+      </c>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="50">
         <f>B52</f>
-        <v>2</v>
-      </c>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="24">
+        <v>69</v>
+      </c>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="52"/>
+      <c r="R56" s="50">
         <f>B53</f>
-        <v>0</v>
-      </c>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="25"/>
-      <c r="V56" s="25"/>
-      <c r="W56" s="36"/>
+        <v>16</v>
+      </c>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="63"/>
       <c r="Y56" s="2" t="s">
         <v>268</v>
       </c>
@@ -30237,32 +30230,32 @@
       </c>
       <c r="B57" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A57,$AC41:$HA41,0),FALSE)</f>
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="37"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="22"/>
       <c r="Y57" s="13" t="b">
         <f>OR(B45="PTFC",B45="FCKC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z57" s="15"/>
       <c r="AC57" t="s">
@@ -30816,29 +30809,29 @@
       </c>
       <c r="B58" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A58,$AC41:$HA41,0),FALSE)</f>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="37"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="22"/>
       <c r="AC58" t="s">
         <v>19</v>
       </c>
@@ -31390,29 +31383,29 @@
       </c>
       <c r="B59" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A59,$AC41:$HA41,0),FALSE)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="37"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="22"/>
       <c r="AC59" t="s">
         <v>217</v>
       </c>
@@ -31964,29 +31957,29 @@
       </c>
       <c r="B60" s="14">
         <f>VLOOKUP(B45,$AC42:$HA72,MATCH(A60,$AC41:$HA41,0),FALSE)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="28"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="40"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="49"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="48"/>
+      <c r="L60" s="48"/>
+      <c r="M60" s="48"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="49"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
+      <c r="W60" s="54"/>
       <c r="AC60" t="s">
         <v>218</v>
       </c>
@@ -32541,35 +32534,35 @@
         <v>0</v>
       </c>
       <c r="C61" s="3"/>
-      <c r="D61" s="29">
+      <c r="D61" s="55">
         <f>B48</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="30">
+        <v>39</v>
+      </c>
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="56">
         <f>B49</f>
-        <v>2</v>
-      </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="41">
+        <v>37</v>
+      </c>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="56"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="59">
         <f>B50</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="42"/>
+        <v>30</v>
+      </c>
+      <c r="S61" s="56"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
+      <c r="V61" s="56"/>
+      <c r="W61" s="61"/>
       <c r="AC61" t="s">
         <v>10</v>
       </c>
@@ -33116,26 +33109,26 @@
     </row>
     <row r="62" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="19"/>
-      <c r="T62" s="19"/>
-      <c r="U62" s="19"/>
-      <c r="V62" s="19"/>
-      <c r="W62" s="37"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="22"/>
       <c r="AC62" t="s">
         <v>15</v>
       </c>
@@ -33683,26 +33676,26 @@
     <row r="63" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B63" s="9"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="19"/>
-      <c r="T63" s="19"/>
-      <c r="U63" s="19"/>
-      <c r="V63" s="19"/>
-      <c r="W63" s="37"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="21"/>
+      <c r="U63" s="21"/>
+      <c r="V63" s="21"/>
+      <c r="W63" s="22"/>
       <c r="AC63" t="s">
         <v>220</v>
       </c>
@@ -34250,26 +34243,26 @@
     <row r="64" spans="1:209" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="19"/>
-      <c r="T64" s="19"/>
-      <c r="U64" s="19"/>
-      <c r="V64" s="19"/>
-      <c r="W64" s="37"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="22"/>
       <c r="AC64" t="s">
         <v>16</v>
       </c>
@@ -34818,26 +34811,26 @@
       <c r="C65" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="37"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="22"/>
       <c r="AC65" t="s">
         <v>20</v>
       </c>
@@ -35385,26 +35378,26 @@
     <row r="66" spans="2:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B66" s="9"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="19"/>
-      <c r="T66" s="19"/>
-      <c r="U66" s="19"/>
-      <c r="V66" s="19"/>
-      <c r="W66" s="37"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="21"/>
+      <c r="U66" s="21"/>
+      <c r="V66" s="21"/>
+      <c r="W66" s="22"/>
       <c r="AC66" t="s">
         <v>250</v>
       </c>
@@ -35951,47 +35944,47 @@
     </row>
     <row r="67" spans="2:209" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
-      <c r="D67" s="18">
+      <c r="D67" s="35">
         <f>B48</f>
-        <v>1</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="45">
+        <v>39</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="39">
         <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="46"/>
-      <c r="J67" s="50">
+        <v>13</v>
+      </c>
+      <c r="I67" s="40"/>
+      <c r="J67" s="44">
         <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="K67" s="52">
+        <v>13</v>
+      </c>
+      <c r="K67" s="27">
         <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="52"/>
-      <c r="P67" s="52"/>
-      <c r="Q67" s="46">
+        <v>13</v>
+      </c>
+      <c r="L67" s="27"/>
+      <c r="M67" s="27"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="27"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="40">
         <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="R67" s="50">
+        <v>13</v>
+      </c>
+      <c r="R67" s="44">
         <f>B47</f>
-        <v>0</v>
-      </c>
-      <c r="S67" s="53"/>
-      <c r="T67" s="47">
+        <v>13</v>
+      </c>
+      <c r="S67" s="28"/>
+      <c r="T67" s="20">
         <f>B50</f>
-        <v>0</v>
-      </c>
-      <c r="U67" s="19"/>
-      <c r="V67" s="19"/>
-      <c r="W67" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="U67" s="21"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="22"/>
       <c r="AC67" t="s">
         <v>223</v>
       </c>
@@ -36538,26 +36531,26 @@
     </row>
     <row r="68" spans="2:209" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="19"/>
-      <c r="V68" s="19"/>
-      <c r="W68" s="37"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="22"/>
       <c r="AC68" t="s">
         <v>224</v>
       </c>
@@ -37104,80 +37097,80 @@
     </row>
     <row r="69" spans="2:209" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="62">
+      <c r="D69" s="35"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="26">
         <f>B46</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="52"/>
-      <c r="O69" s="52"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="19"/>
-      <c r="V69" s="19"/>
-      <c r="W69" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="36"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="22"/>
     </row>
     <row r="70" spans="2:209" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="54"/>
-      <c r="Q70" s="49"/>
-      <c r="R70" s="51"/>
-      <c r="S70" s="54"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="39"/>
-      <c r="V70" s="39"/>
-      <c r="W70" s="38"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="31"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="31"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="25"/>
     </row>
     <row r="71" spans="2:209" x14ac:dyDescent="0.2">
-      <c r="D71" s="59" t="s">
+      <c r="D71" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="60" t="s">
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="59" t="s">
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="32"/>
+      <c r="U71" s="32"/>
+      <c r="V71" s="32"/>
+      <c r="W71" s="32"/>
       <c r="AC71" t="s">
         <v>205</v>
       </c>
@@ -37887,26 +37880,26 @@
       </c>
     </row>
     <row r="72" spans="2:209" x14ac:dyDescent="0.2">
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="32"/>
+      <c r="W72" s="32"/>
       <c r="AC72" t="s">
         <v>242</v>
       </c>
@@ -38616,73 +38609,73 @@
       </c>
     </row>
     <row r="73" spans="2:209" x14ac:dyDescent="0.2">
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="34"/>
+      <c r="O73" s="34"/>
+      <c r="P73" s="34"/>
+      <c r="Q73" s="34"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="32"/>
+      <c r="U73" s="32"/>
+      <c r="V73" s="32"/>
+      <c r="W73" s="32"/>
     </row>
     <row r="81" spans="1:209" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="32">
+      <c r="D81" s="62">
         <f>B97</f>
-        <v>12</v>
-      </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="32">
+        <v>31</v>
+      </c>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="62">
         <f>B100</f>
-        <v>5</v>
-      </c>
-      <c r="I81" s="26"/>
-      <c r="J81" s="24">
+        <v>7</v>
+      </c>
+      <c r="I81" s="52"/>
+      <c r="J81" s="50">
         <f>B100</f>
-        <v>5</v>
-      </c>
-      <c r="K81" s="32">
+        <v>7</v>
+      </c>
+      <c r="K81" s="62">
         <f>B101</f>
         <v>0</v>
       </c>
-      <c r="L81" s="25"/>
-      <c r="M81" s="25"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="25"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="55">
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="63"/>
+      <c r="Q81" s="64">
         <f>B100</f>
-        <v>5</v>
-      </c>
-      <c r="R81" s="24">
+        <v>7</v>
+      </c>
+      <c r="R81" s="50">
         <f>B100</f>
-        <v>5</v>
-      </c>
-      <c r="S81" s="36"/>
-      <c r="T81" s="32">
+        <v>7</v>
+      </c>
+      <c r="S81" s="63"/>
+      <c r="T81" s="62">
         <f>B99</f>
-        <v>0</v>
-      </c>
-      <c r="U81" s="25"/>
-      <c r="V81" s="25"/>
-      <c r="W81" s="36"/>
+        <v>13</v>
+      </c>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="63"/>
       <c r="Y81" s="2" t="s">
         <v>232</v>
       </c>
@@ -39241,26 +39234,26 @@
         <v>225</v>
       </c>
       <c r="C82" s="3"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="39"/>
-      <c r="O82" s="39"/>
-      <c r="P82" s="38"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="37"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="19"/>
-      <c r="V82" s="19"/>
-      <c r="W82" s="37"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="24"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="65"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="21"/>
+      <c r="V82" s="21"/>
+      <c r="W82" s="22"/>
       <c r="Y82" t="s">
         <v>226</v>
       </c>
@@ -39821,29 +39814,29 @@
         <v>226</v>
       </c>
       <c r="C83" s="3"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="19">
+      <c r="D83" s="35"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="21">
         <f>B100</f>
-        <v>5</v>
-      </c>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="37"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="37"/>
+        <v>7</v>
+      </c>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+      <c r="O83" s="21"/>
+      <c r="P83" s="21"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="21"/>
+      <c r="V83" s="21"/>
+      <c r="W83" s="22"/>
       <c r="Y83" t="s">
         <v>228</v>
       </c>
@@ -40404,26 +40397,26 @@
         <v>22</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="35"/>
-      <c r="K84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="39"/>
-      <c r="O84" s="39"/>
-      <c r="P84" s="39"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="35"/>
-      <c r="S84" s="38"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="37"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="58"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="24"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="58"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="35"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="22"/>
       <c r="Y84" t="s">
         <v>233</v>
       </c>
@@ -40984,40 +40977,40 @@
         <v>230</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>6</v>
+        <v>205</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="35">
         <f>B97</f>
-        <v>12</v>
-      </c>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="24">
+        <v>31</v>
+      </c>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="50">
         <f>B98</f>
-        <v>5</v>
-      </c>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="25"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="27">
+        <v>23</v>
+      </c>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="52"/>
+      <c r="R85" s="45">
         <f>B99</f>
-        <v>0</v>
-      </c>
-      <c r="S85" s="19"/>
-      <c r="T85" s="19"/>
-      <c r="U85" s="19"/>
-      <c r="V85" s="19"/>
-      <c r="W85" s="37"/>
+        <v>13</v>
+      </c>
+      <c r="S85" s="21"/>
+      <c r="T85" s="21"/>
+      <c r="U85" s="21"/>
+      <c r="V85" s="21"/>
+      <c r="W85" s="22"/>
       <c r="Y85" t="s">
         <v>227</v>
       </c>
@@ -41580,29 +41573,29 @@
       </c>
       <c r="B86" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A86,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" s="3"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="19"/>
-      <c r="Q86" s="20"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="19"/>
-      <c r="T86" s="19"/>
-      <c r="U86" s="19"/>
-      <c r="V86" s="19"/>
-      <c r="W86" s="37"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="21"/>
+      <c r="T86" s="21"/>
+      <c r="U86" s="21"/>
+      <c r="V86" s="21"/>
+      <c r="W86" s="22"/>
       <c r="Y86" t="s">
         <v>229</v>
       </c>
@@ -42165,29 +42158,29 @@
       </c>
       <c r="B87" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A87,$AC81:$HA81,0),FALSE)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C87" s="3"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="19"/>
-      <c r="T87" s="19"/>
-      <c r="U87" s="19"/>
-      <c r="V87" s="19"/>
-      <c r="W87" s="37"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="21"/>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="22"/>
       <c r="Y87" t="s">
         <v>234</v>
       </c>
@@ -42750,29 +42743,29 @@
       </c>
       <c r="B88" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A88,$AC81:$HA81,0),FALSE)</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C88" s="3"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="27"/>
-      <c r="S88" s="19"/>
-      <c r="T88" s="19"/>
-      <c r="U88" s="19"/>
-      <c r="V88" s="19"/>
-      <c r="W88" s="37"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="21"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="22"/>
       <c r="Y88" t="s">
         <v>235</v>
       </c>
@@ -43335,29 +43328,29 @@
       </c>
       <c r="B89" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A89,$AC81:$HA81,0),FALSE)</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C89" s="3"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="20"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="27"/>
-      <c r="S89" s="19"/>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="37"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="21"/>
+      <c r="T89" s="21"/>
+      <c r="U89" s="21"/>
+      <c r="V89" s="21"/>
+      <c r="W89" s="22"/>
       <c r="Y89" t="s">
         <v>236</v>
       </c>
@@ -43920,29 +43913,29 @@
       </c>
       <c r="B90" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A90,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C90" s="3"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="28"/>
-      <c r="S90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="U90" s="22"/>
-      <c r="V90" s="22"/>
-      <c r="W90" s="40"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="53"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="53"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="48"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="54"/>
       <c r="Y90" t="s">
         <v>237</v>
       </c>
@@ -44505,38 +44498,38 @@
       </c>
       <c r="B91" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A91,$AC81:$HA81,0),FALSE)</f>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="29">
+      <c r="D91" s="55">
         <f>B94</f>
-        <v>3</v>
-      </c>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="41">
+        <v>32</v>
+      </c>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="59">
         <f>B95</f>
-        <v>2</v>
-      </c>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="31"/>
-      <c r="R91" s="41">
+        <v>37</v>
+      </c>
+      <c r="K91" s="56"/>
+      <c r="L91" s="56"/>
+      <c r="M91" s="56"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="56"/>
+      <c r="P91" s="56"/>
+      <c r="Q91" s="57"/>
+      <c r="R91" s="59">
         <f>B96</f>
-        <v>0</v>
-      </c>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="S91" s="56"/>
+      <c r="T91" s="56"/>
+      <c r="U91" s="56"/>
+      <c r="V91" s="56"/>
+      <c r="W91" s="61"/>
       <c r="Y91" t="s">
         <v>238</v>
       </c>
@@ -45099,29 +45092,29 @@
       </c>
       <c r="B92" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A92,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="37"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="45"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="22"/>
       <c r="Y92" t="s">
         <v>231</v>
       </c>
@@ -45684,29 +45677,29 @@
       </c>
       <c r="B93" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A93,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
-      <c r="M93" s="19"/>
-      <c r="N93" s="19"/>
-      <c r="O93" s="19"/>
-      <c r="P93" s="19"/>
-      <c r="Q93" s="20"/>
-      <c r="R93" s="27"/>
-      <c r="S93" s="19"/>
-      <c r="T93" s="19"/>
-      <c r="U93" s="19"/>
-      <c r="V93" s="19"/>
-      <c r="W93" s="37"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="45"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="21"/>
+      <c r="T93" s="21"/>
+      <c r="U93" s="21"/>
+      <c r="V93" s="21"/>
+      <c r="W93" s="22"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
       <c r="AC93" t="s">
@@ -46260,29 +46253,29 @@
       </c>
       <c r="B94" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A94,$AC81:$HA81,0),FALSE)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C94" s="4"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
-      <c r="M94" s="19"/>
-      <c r="N94" s="19"/>
-      <c r="O94" s="19"/>
-      <c r="P94" s="19"/>
-      <c r="Q94" s="20"/>
-      <c r="R94" s="27"/>
-      <c r="S94" s="19"/>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="19"/>
-      <c r="W94" s="37"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="45"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="21"/>
+      <c r="T94" s="21"/>
+      <c r="U94" s="21"/>
+      <c r="V94" s="21"/>
+      <c r="W94" s="22"/>
       <c r="Y94" s="2" t="s">
         <v>269</v>
       </c>
@@ -46841,38 +46834,38 @@
       </c>
       <c r="B95" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A95,$AC81:$HA81,0),FALSE)</f>
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="33"/>
-      <c r="E95" s="39"/>
-      <c r="F95" s="39"/>
-      <c r="G95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
-      <c r="N95" s="39"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="39"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="39"/>
-      <c r="T95" s="39"/>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="38"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="58"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="24"/>
+      <c r="Q95" s="58"/>
+      <c r="R95" s="60"/>
+      <c r="S95" s="24"/>
+      <c r="T95" s="24"/>
+      <c r="U95" s="24"/>
+      <c r="V95" s="24"/>
+      <c r="W95" s="25"/>
       <c r="Y95" s="13" t="str">
         <f>VLOOKUP(B83,Y82:Z92,1,FALSE)</f>
         <v>opPass.Att</v>
       </c>
       <c r="Z95" s="16">
         <f>IF(Y97=TRUE,VLOOKUP(B83,Y82:AA92,3,FALSE),VLOOKUP(B83,Y82:AA92,2,FALSE))</f>
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AC95" t="s">
         <v>216</v>
@@ -47425,38 +47418,38 @@
       </c>
       <c r="B96" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A96,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C96" s="4"/>
-      <c r="D96" s="32">
+      <c r="D96" s="62">
         <f>B91</f>
-        <v>5</v>
-      </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="24">
+        <v>36</v>
+      </c>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="50">
         <f>B92</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="25"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="25"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="24">
+        <v>40</v>
+      </c>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="52"/>
+      <c r="R96" s="50">
         <f>B93</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="25"/>
-      <c r="T96" s="25"/>
-      <c r="U96" s="25"/>
-      <c r="V96" s="25"/>
-      <c r="W96" s="36"/>
+        <v>36</v>
+      </c>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="63"/>
       <c r="Y96" s="2" t="s">
         <v>268</v>
       </c>
@@ -48012,32 +48005,32 @@
       </c>
       <c r="B97" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A97,$AC81:$HA81,0),FALSE)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C97" s="4"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
-      <c r="M97" s="19"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="19"/>
-      <c r="P97" s="19"/>
-      <c r="Q97" s="20"/>
-      <c r="R97" s="27"/>
-      <c r="S97" s="19"/>
-      <c r="T97" s="19"/>
-      <c r="U97" s="19"/>
-      <c r="V97" s="19"/>
-      <c r="W97" s="37"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="21"/>
+      <c r="H97" s="21"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="21"/>
+      <c r="T97" s="21"/>
+      <c r="U97" s="21"/>
+      <c r="V97" s="21"/>
+      <c r="W97" s="22"/>
       <c r="Y97" s="13" t="b">
         <f>OR(B85="PTFC",B85="BOS")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z97" s="15"/>
       <c r="AC97" t="s">
@@ -48591,29 +48584,29 @@
       </c>
       <c r="B98" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A98,$AC81:$HA81,0),FALSE)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C98" s="4"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="19"/>
-      <c r="G98" s="19"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
-      <c r="M98" s="19"/>
-      <c r="N98" s="19"/>
-      <c r="O98" s="19"/>
-      <c r="P98" s="19"/>
-      <c r="Q98" s="20"/>
-      <c r="R98" s="27"/>
-      <c r="S98" s="19"/>
-      <c r="T98" s="19"/>
-      <c r="U98" s="19"/>
-      <c r="V98" s="19"/>
-      <c r="W98" s="37"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="21"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="45"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="21"/>
+      <c r="T98" s="21"/>
+      <c r="U98" s="21"/>
+      <c r="V98" s="21"/>
+      <c r="W98" s="22"/>
       <c r="AC98" t="s">
         <v>259</v>
       </c>
@@ -49165,29 +49158,29 @@
       </c>
       <c r="B99" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A99,$AC81:$HA81,0),FALSE)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C99" s="4"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-      <c r="P99" s="19"/>
-      <c r="Q99" s="20"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="19"/>
-      <c r="T99" s="19"/>
-      <c r="U99" s="19"/>
-      <c r="V99" s="19"/>
-      <c r="W99" s="37"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="21"/>
+      <c r="H99" s="21"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="45"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="21"/>
+      <c r="T99" s="21"/>
+      <c r="U99" s="21"/>
+      <c r="V99" s="21"/>
+      <c r="W99" s="22"/>
       <c r="AC99" t="s">
         <v>218</v>
       </c>
@@ -49739,29 +49732,29 @@
       </c>
       <c r="B100" s="14">
         <f>VLOOKUP(B85,$AC82:$HA112,MATCH(A100,$AC81:$HA81,0),FALSE)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" s="4"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="28"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
-      <c r="V100" s="22"/>
-      <c r="W100" s="40"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="49"/>
+      <c r="J100" s="53"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="48"/>
+      <c r="N100" s="48"/>
+      <c r="O100" s="48"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="49"/>
+      <c r="R100" s="53"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="48"/>
+      <c r="U100" s="48"/>
+      <c r="V100" s="48"/>
+      <c r="W100" s="54"/>
       <c r="AC100" t="s">
         <v>260</v>
       </c>
@@ -50316,35 +50309,35 @@
         <v>0</v>
       </c>
       <c r="C101" s="3"/>
-      <c r="D101" s="29">
+      <c r="D101" s="55">
         <f>B88</f>
-        <v>1</v>
-      </c>
-      <c r="E101" s="30"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="30"/>
-      <c r="H101" s="30"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="30">
+        <v>30</v>
+      </c>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="56">
         <f>B89</f>
-        <v>1</v>
-      </c>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="30"/>
-      <c r="O101" s="30"/>
-      <c r="P101" s="30"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="41">
+        <v>30</v>
+      </c>
+      <c r="K101" s="56"/>
+      <c r="L101" s="56"/>
+      <c r="M101" s="56"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="56"/>
+      <c r="P101" s="56"/>
+      <c r="Q101" s="57"/>
+      <c r="R101" s="59">
         <f>B90</f>
-        <v>0</v>
-      </c>
-      <c r="S101" s="30"/>
-      <c r="T101" s="30"/>
-      <c r="U101" s="30"/>
-      <c r="V101" s="30"/>
-      <c r="W101" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="S101" s="56"/>
+      <c r="T101" s="56"/>
+      <c r="U101" s="56"/>
+      <c r="V101" s="56"/>
+      <c r="W101" s="61"/>
       <c r="AC101" t="s">
         <v>261</v>
       </c>
@@ -50891,26 +50884,26 @@
     </row>
     <row r="102" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
-      <c r="M102" s="19"/>
-      <c r="N102" s="19"/>
-      <c r="O102" s="19"/>
-      <c r="P102" s="19"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="27"/>
-      <c r="S102" s="19"/>
-      <c r="T102" s="19"/>
-      <c r="U102" s="19"/>
-      <c r="V102" s="19"/>
-      <c r="W102" s="37"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="41"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="22"/>
       <c r="AC102" t="s">
         <v>220</v>
       </c>
@@ -51458,26 +51451,26 @@
     <row r="103" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="20"/>
-      <c r="R103" s="27"/>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="19"/>
-      <c r="W103" s="37"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="41"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="21"/>
+      <c r="W103" s="22"/>
       <c r="AC103" t="s">
         <v>262</v>
       </c>
@@ -52025,26 +52018,26 @@
     <row r="104" spans="1:209" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="20"/>
-      <c r="R104" s="27"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="19"/>
-      <c r="W104" s="37"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21"/>
+      <c r="H104" s="21"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="41"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="22"/>
       <c r="AC104" t="s">
         <v>263</v>
       </c>
@@ -52593,26 +52586,26 @@
       <c r="C105" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
-      <c r="M105" s="19"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="19"/>
-      <c r="P105" s="19"/>
-      <c r="Q105" s="20"/>
-      <c r="R105" s="27"/>
-      <c r="S105" s="19"/>
-      <c r="T105" s="19"/>
-      <c r="U105" s="19"/>
-      <c r="V105" s="19"/>
-      <c r="W105" s="37"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="21"/>
+      <c r="H105" s="21"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="41"/>
+      <c r="R105" s="45"/>
+      <c r="S105" s="21"/>
+      <c r="T105" s="21"/>
+      <c r="U105" s="21"/>
+      <c r="V105" s="21"/>
+      <c r="W105" s="22"/>
       <c r="AC105" t="s">
         <v>16</v>
       </c>
@@ -53160,26 +53153,26 @@
     <row r="106" spans="1:209" ht="17" x14ac:dyDescent="0.2">
       <c r="B106" s="9"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="19"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
-      <c r="M106" s="19"/>
-      <c r="N106" s="19"/>
-      <c r="O106" s="19"/>
-      <c r="P106" s="19"/>
-      <c r="Q106" s="20"/>
-      <c r="R106" s="27"/>
-      <c r="S106" s="19"/>
-      <c r="T106" s="19"/>
-      <c r="U106" s="19"/>
-      <c r="V106" s="19"/>
-      <c r="W106" s="37"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="21"/>
+      <c r="H106" s="21"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="21"/>
+      <c r="T106" s="21"/>
+      <c r="U106" s="21"/>
+      <c r="V106" s="21"/>
+      <c r="W106" s="22"/>
       <c r="AC106" t="s">
         <v>223</v>
       </c>
@@ -53726,47 +53719,47 @@
     </row>
     <row r="107" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
-      <c r="D107" s="18">
+      <c r="D107" s="35">
         <f>B88</f>
-        <v>1</v>
-      </c>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="45">
+        <v>30</v>
+      </c>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="39">
         <f>B87</f>
-        <v>1</v>
-      </c>
-      <c r="I107" s="46"/>
-      <c r="J107" s="50">
+        <v>15</v>
+      </c>
+      <c r="I107" s="40"/>
+      <c r="J107" s="44">
         <f>B87</f>
-        <v>1</v>
-      </c>
-      <c r="K107" s="52">
+        <v>15</v>
+      </c>
+      <c r="K107" s="27">
         <f>B87</f>
-        <v>1</v>
-      </c>
-      <c r="L107" s="52"/>
-      <c r="M107" s="52"/>
-      <c r="N107" s="52"/>
-      <c r="O107" s="52"/>
-      <c r="P107" s="52"/>
-      <c r="Q107" s="46">
+        <v>15</v>
+      </c>
+      <c r="L107" s="27"/>
+      <c r="M107" s="27"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="27"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="40">
         <f>B87</f>
-        <v>1</v>
-      </c>
-      <c r="R107" s="50">
+        <v>15</v>
+      </c>
+      <c r="R107" s="44">
         <f>B87</f>
-        <v>1</v>
-      </c>
-      <c r="S107" s="53"/>
-      <c r="T107" s="47">
+        <v>15</v>
+      </c>
+      <c r="S107" s="28"/>
+      <c r="T107" s="20">
         <f>B90</f>
-        <v>0</v>
-      </c>
-      <c r="U107" s="19"/>
-      <c r="V107" s="19"/>
-      <c r="W107" s="37"/>
+        <v>16</v>
+      </c>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="22"/>
       <c r="AC107" t="s">
         <v>264</v>
       </c>
@@ -54313,26 +54306,26 @@
     </row>
     <row r="108" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="57"/>
-      <c r="N108" s="57"/>
-      <c r="O108" s="57"/>
-      <c r="P108" s="57"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="27"/>
-      <c r="S108" s="43"/>
-      <c r="T108" s="47"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="19"/>
-      <c r="W108" s="37"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="36"/>
+      <c r="T108" s="20"/>
+      <c r="U108" s="21"/>
+      <c r="V108" s="21"/>
+      <c r="W108" s="22"/>
       <c r="AC108" t="s">
         <v>265</v>
       </c>
@@ -54879,80 +54872,80 @@
     </row>
     <row r="109" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="47"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="62">
+      <c r="D109" s="35"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="36"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="26">
         <f>B86</f>
-        <v>0</v>
-      </c>
-      <c r="L109" s="52"/>
-      <c r="M109" s="52"/>
-      <c r="N109" s="52"/>
-      <c r="O109" s="52"/>
-      <c r="P109" s="53"/>
-      <c r="Q109" s="20"/>
-      <c r="R109" s="27"/>
-      <c r="S109" s="43"/>
-      <c r="T109" s="47"/>
-      <c r="U109" s="19"/>
-      <c r="V109" s="19"/>
-      <c r="W109" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="L109" s="27"/>
+      <c r="M109" s="27"/>
+      <c r="N109" s="27"/>
+      <c r="O109" s="27"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="41"/>
+      <c r="R109" s="45"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="20"/>
+      <c r="U109" s="21"/>
+      <c r="V109" s="21"/>
+      <c r="W109" s="22"/>
     </row>
     <row r="110" spans="1:209" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="63"/>
-      <c r="L110" s="57"/>
-      <c r="M110" s="57"/>
-      <c r="N110" s="57"/>
-      <c r="O110" s="57"/>
-      <c r="P110" s="54"/>
-      <c r="Q110" s="49"/>
-      <c r="R110" s="51"/>
-      <c r="S110" s="54"/>
-      <c r="T110" s="56"/>
-      <c r="U110" s="39"/>
-      <c r="V110" s="39"/>
-      <c r="W110" s="38"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="31"/>
+      <c r="Q110" s="43"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="31"/>
+      <c r="T110" s="23"/>
+      <c r="U110" s="24"/>
+      <c r="V110" s="24"/>
+      <c r="W110" s="25"/>
     </row>
     <row r="111" spans="1:209" x14ac:dyDescent="0.2">
-      <c r="D111" s="59" t="s">
+      <c r="D111" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="59"/>
-      <c r="F111" s="59"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="59"/>
-      <c r="I111" s="59"/>
-      <c r="J111" s="60" t="s">
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K111" s="60"/>
-      <c r="L111" s="60"/>
-      <c r="M111" s="60"/>
-      <c r="N111" s="60"/>
-      <c r="O111" s="60"/>
-      <c r="P111" s="60"/>
-      <c r="Q111" s="60"/>
-      <c r="R111" s="59" t="s">
+      <c r="K111" s="33"/>
+      <c r="L111" s="33"/>
+      <c r="M111" s="33"/>
+      <c r="N111" s="33"/>
+      <c r="O111" s="33"/>
+      <c r="P111" s="33"/>
+      <c r="Q111" s="33"/>
+      <c r="R111" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="S111" s="59"/>
-      <c r="T111" s="59"/>
-      <c r="U111" s="59"/>
-      <c r="V111" s="59"/>
-      <c r="W111" s="59"/>
+      <c r="S111" s="32"/>
+      <c r="T111" s="32"/>
+      <c r="U111" s="32"/>
+      <c r="V111" s="32"/>
+      <c r="W111" s="32"/>
       <c r="AC111" t="s">
         <v>205</v>
       </c>
@@ -55662,26 +55655,26 @@
       </c>
     </row>
     <row r="112" spans="1:209" x14ac:dyDescent="0.2">
-      <c r="D112" s="59"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="59"/>
-      <c r="I112" s="59"/>
-      <c r="J112" s="61"/>
-      <c r="K112" s="61"/>
-      <c r="L112" s="61"/>
-      <c r="M112" s="61"/>
-      <c r="N112" s="61"/>
-      <c r="O112" s="61"/>
-      <c r="P112" s="61"/>
-      <c r="Q112" s="61"/>
-      <c r="R112" s="59"/>
-      <c r="S112" s="59"/>
-      <c r="T112" s="59"/>
-      <c r="U112" s="59"/>
-      <c r="V112" s="59"/>
-      <c r="W112" s="59"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
+      <c r="L112" s="34"/>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
       <c r="AC112" t="s">
         <v>253</v>
       </c>
@@ -56391,102 +56384,35 @@
       </c>
     </row>
     <row r="113" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="D113" s="59"/>
-      <c r="E113" s="59"/>
-      <c r="F113" s="59"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="59"/>
-      <c r="I113" s="59"/>
-      <c r="J113" s="61"/>
-      <c r="K113" s="61"/>
-      <c r="L113" s="61"/>
-      <c r="M113" s="61"/>
-      <c r="N113" s="61"/>
-      <c r="O113" s="61"/>
-      <c r="P113" s="61"/>
-      <c r="Q113" s="61"/>
-      <c r="R113" s="59"/>
-      <c r="S113" s="59"/>
-      <c r="T113" s="59"/>
-      <c r="U113" s="59"/>
-      <c r="V113" s="59"/>
-      <c r="W113" s="59"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="34"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="32"/>
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="32"/>
+      <c r="W113" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="T107:W110"/>
-    <mergeCell ref="K109:P110"/>
-    <mergeCell ref="D111:I113"/>
-    <mergeCell ref="J111:Q113"/>
-    <mergeCell ref="R111:W113"/>
-    <mergeCell ref="D107:G110"/>
-    <mergeCell ref="H107:I110"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="K107:P108"/>
-    <mergeCell ref="Q107:Q110"/>
-    <mergeCell ref="R107:S110"/>
-    <mergeCell ref="D85:I90"/>
-    <mergeCell ref="J85:Q90"/>
-    <mergeCell ref="R85:W90"/>
-    <mergeCell ref="D91:I95"/>
-    <mergeCell ref="J91:Q95"/>
-    <mergeCell ref="R91:W95"/>
-    <mergeCell ref="D96:I100"/>
-    <mergeCell ref="J96:Q100"/>
-    <mergeCell ref="R96:W100"/>
-    <mergeCell ref="D101:I106"/>
-    <mergeCell ref="J101:Q106"/>
-    <mergeCell ref="R101:W106"/>
-    <mergeCell ref="D71:I73"/>
-    <mergeCell ref="J71:Q73"/>
-    <mergeCell ref="R71:W73"/>
-    <mergeCell ref="D81:G84"/>
-    <mergeCell ref="H81:I84"/>
-    <mergeCell ref="J81:J84"/>
-    <mergeCell ref="K81:P82"/>
-    <mergeCell ref="Q81:Q82"/>
-    <mergeCell ref="R81:S84"/>
-    <mergeCell ref="T81:W84"/>
-    <mergeCell ref="K83:Q84"/>
-    <mergeCell ref="D61:I66"/>
-    <mergeCell ref="J61:Q66"/>
-    <mergeCell ref="R61:W66"/>
-    <mergeCell ref="D67:G70"/>
-    <mergeCell ref="H67:I70"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="K67:P68"/>
-    <mergeCell ref="Q67:Q70"/>
-    <mergeCell ref="R67:S70"/>
-    <mergeCell ref="T67:W70"/>
-    <mergeCell ref="K69:P70"/>
-    <mergeCell ref="R41:S44"/>
-    <mergeCell ref="T41:W44"/>
-    <mergeCell ref="K43:Q44"/>
-    <mergeCell ref="D45:I50"/>
-    <mergeCell ref="J45:Q50"/>
-    <mergeCell ref="R45:W50"/>
-    <mergeCell ref="D51:I55"/>
-    <mergeCell ref="J51:Q55"/>
-    <mergeCell ref="R51:W55"/>
-    <mergeCell ref="D56:I60"/>
-    <mergeCell ref="J56:Q60"/>
-    <mergeCell ref="R56:W60"/>
-    <mergeCell ref="D41:G44"/>
-    <mergeCell ref="H41:I44"/>
-    <mergeCell ref="J41:J44"/>
-    <mergeCell ref="K41:P42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="T27:W30"/>
-    <mergeCell ref="K29:P30"/>
-    <mergeCell ref="D31:I33"/>
-    <mergeCell ref="J31:Q33"/>
-    <mergeCell ref="R31:W33"/>
-    <mergeCell ref="D27:G30"/>
-    <mergeCell ref="H27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="K27:P28"/>
-    <mergeCell ref="Q27:Q30"/>
-    <mergeCell ref="R27:S30"/>
+    <mergeCell ref="D16:I20"/>
+    <mergeCell ref="J16:Q20"/>
+    <mergeCell ref="R16:W20"/>
+    <mergeCell ref="D21:I26"/>
+    <mergeCell ref="J21:Q26"/>
+    <mergeCell ref="R21:W26"/>
     <mergeCell ref="D11:I15"/>
     <mergeCell ref="J11:Q15"/>
     <mergeCell ref="R11:W15"/>
@@ -56501,12 +56427,79 @@
     <mergeCell ref="D5:I10"/>
     <mergeCell ref="J5:Q10"/>
     <mergeCell ref="R5:W10"/>
-    <mergeCell ref="D16:I20"/>
-    <mergeCell ref="J16:Q20"/>
-    <mergeCell ref="R16:W20"/>
-    <mergeCell ref="D21:I26"/>
-    <mergeCell ref="J21:Q26"/>
-    <mergeCell ref="R21:W26"/>
+    <mergeCell ref="T27:W30"/>
+    <mergeCell ref="K29:P30"/>
+    <mergeCell ref="D31:I33"/>
+    <mergeCell ref="J31:Q33"/>
+    <mergeCell ref="R31:W33"/>
+    <mergeCell ref="D27:G30"/>
+    <mergeCell ref="H27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="K27:P28"/>
+    <mergeCell ref="Q27:Q30"/>
+    <mergeCell ref="R27:S30"/>
+    <mergeCell ref="D51:I55"/>
+    <mergeCell ref="J51:Q55"/>
+    <mergeCell ref="R51:W55"/>
+    <mergeCell ref="D56:I60"/>
+    <mergeCell ref="J56:Q60"/>
+    <mergeCell ref="R56:W60"/>
+    <mergeCell ref="R41:S44"/>
+    <mergeCell ref="T41:W44"/>
+    <mergeCell ref="K43:Q44"/>
+    <mergeCell ref="D45:I50"/>
+    <mergeCell ref="J45:Q50"/>
+    <mergeCell ref="R45:W50"/>
+    <mergeCell ref="D41:G44"/>
+    <mergeCell ref="H41:I44"/>
+    <mergeCell ref="J41:J44"/>
+    <mergeCell ref="K41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="D61:I66"/>
+    <mergeCell ref="J61:Q66"/>
+    <mergeCell ref="R61:W66"/>
+    <mergeCell ref="D67:G70"/>
+    <mergeCell ref="H67:I70"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="K67:P68"/>
+    <mergeCell ref="Q67:Q70"/>
+    <mergeCell ref="R67:S70"/>
+    <mergeCell ref="T67:W70"/>
+    <mergeCell ref="K69:P70"/>
+    <mergeCell ref="D71:I73"/>
+    <mergeCell ref="J71:Q73"/>
+    <mergeCell ref="R71:W73"/>
+    <mergeCell ref="D81:G84"/>
+    <mergeCell ref="H81:I84"/>
+    <mergeCell ref="J81:J84"/>
+    <mergeCell ref="K81:P82"/>
+    <mergeCell ref="Q81:Q82"/>
+    <mergeCell ref="R81:S84"/>
+    <mergeCell ref="T81:W84"/>
+    <mergeCell ref="K83:Q84"/>
+    <mergeCell ref="D96:I100"/>
+    <mergeCell ref="J96:Q100"/>
+    <mergeCell ref="R96:W100"/>
+    <mergeCell ref="D101:I106"/>
+    <mergeCell ref="J101:Q106"/>
+    <mergeCell ref="R101:W106"/>
+    <mergeCell ref="D85:I90"/>
+    <mergeCell ref="J85:Q90"/>
+    <mergeCell ref="R85:W90"/>
+    <mergeCell ref="D91:I95"/>
+    <mergeCell ref="J91:Q95"/>
+    <mergeCell ref="R91:W95"/>
+    <mergeCell ref="T107:W110"/>
+    <mergeCell ref="K109:P110"/>
+    <mergeCell ref="D111:I113"/>
+    <mergeCell ref="J111:Q113"/>
+    <mergeCell ref="R111:W113"/>
+    <mergeCell ref="D107:G110"/>
+    <mergeCell ref="H107:I110"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="K107:P108"/>
+    <mergeCell ref="Q107:Q110"/>
+    <mergeCell ref="R107:S110"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:W30">
     <cfRule type="colorScale" priority="22">
